--- a/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Invoices_Pending/Pending_Invoices.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Invoices_Pending/Pending_Invoices.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pending" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pending" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,8 +29,13 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -42,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
         <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,25 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +475,26 @@
           <t>Priority</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>GL Account</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Payment Terms</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Aging (Days)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +523,25 @@
           <t>URGENT</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J2">
+        <f>TODAY()-C2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,6 +570,25 @@
           <t>High</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J3">
+        <f>TODAY()-C3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -565,6 +616,1623 @@
         <is>
           <t>Medium</t>
         </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J4">
+        <f>TODAY()-C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7535</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17956</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J5">
+        <f>TODAY()-C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45578</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>33292</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J6">
+        <f>TODAY()-C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4179</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10110</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J7">
+        <f>TODAY()-C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10971</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J8">
+        <f>TODAY()-C8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22213</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>45452</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J9">
+        <f>TODAY()-C9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4572</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>45723</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J10">
+        <f>TODAY()-C10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22183</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>41816</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J11">
+        <f>TODAY()-C11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>28879</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5273</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J12">
+        <f>TODAY()-C12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9984</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9098</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J13">
+        <f>TODAY()-C13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>42952</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J14">
+        <f>TODAY()-C14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>38668</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3102</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J15">
+        <f>TODAY()-C15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>47913</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J16">
+        <f>TODAY()-C16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>38591</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9644</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J17">
+        <f>TODAY()-C17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>39938</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>18498</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J18">
+        <f>TODAY()-C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44109</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>32119</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J19">
+        <f>TODAY()-C19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>20515</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8609</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J20">
+        <f>TODAY()-C20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37657</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>30765</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J21">
+        <f>TODAY()-C21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>19867</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>24680</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J22">
+        <f>TODAY()-C22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>20610</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>49703</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J23">
+        <f>TODAY()-C23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>26274</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>22336</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J24">
+        <f>TODAY()-C24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>18988</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>7865</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J25">
+        <f>TODAY()-C25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9246</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>38060</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J26">
+        <f>TODAY()-C26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>41029</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>30711</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J27">
+        <f>TODAY()-C27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>46464</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>37464</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J28">
+        <f>TODAY()-C28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15611</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>46671</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J29">
+        <f>TODAY()-C29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41312</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>49010</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J30">
+        <f>TODAY()-C30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30539</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>36584</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J31">
+        <f>TODAY()-C31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>23274</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>31846</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J32">
+        <f>TODAY()-C32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>31300</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1584</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J33">
+        <f>TODAY()-C33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>25374</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1798</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Net 14</t>
+        </is>
+      </c>
+      <c r="J34">
+        <f>TODAY()-C34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2640</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>13836</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J35">
+        <f>TODAY()-C35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>40628</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>30181</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="J36">
+        <f>TODAY()-C36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>49202</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>14461</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Net 60</t>
+        </is>
+      </c>
+      <c r="J37">
+        <f>TODAY()-C37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4534</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Net 30</t>
+        </is>
+      </c>
+      <c r="J38">
+        <f>TODAY()-C38</f>
+        <v/>
       </c>
     </row>
   </sheetData>
